--- a/Question_Rev.xlsx
+++ b/Question_Rev.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD29919-7507-4B07-B8BC-A8F056C009E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61EE1366-595E-4360-9907-120FA999F8E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{16EC8DE0-6C0A-4134-9B21-3B768554F89B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{16EC8DE0-6C0A-4134-9B21-3B768554F89B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Strivers Strings" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="76">
   <si>
     <t>Problem Statement</t>
   </si>
@@ -222,13 +223,55 @@
   </si>
   <si>
     <t>If found is append to list res and sort the list as sorted(res, key = len) based on len() and return the first ele as res[0]</t>
+  </si>
+  <si>
+    <t>Largest Odd Number in String</t>
+  </si>
+  <si>
+    <t>https://github.com/ambareeshkumar/DSA/tree/main/Strivers's%20A2Z</t>
+  </si>
+  <si>
+    <t>Math String Greedy</t>
+  </si>
+  <si>
+    <t>1 - Loop through the string from back and convert it into int using int() and check whether it's odd using modulo operation. If yes return num[:ind+1]</t>
+  </si>
+  <si>
+    <t>2 - Loop through the string from back and check whether it's odd using directly checking with list of default odd numbers ['1','3','5','7','9']. If yes return num[:ind+1]</t>
+  </si>
+  <si>
+    <t>3 - Loop through the string from back and convert it into int using ord() by ord(num[ind]) - ord('0') and check whether it's odd using modulo operation. If yes return num[:ind+1]</t>
+  </si>
+  <si>
+    <t>Rotate String</t>
+  </si>
+  <si>
+    <t>String String Matching</t>
+  </si>
+  <si>
+    <t>1 - Loop through s and shift the leftmost char and append it to last and check whether it's equal to goal in each shift. If it's return True else Fasle ::: Time complexity (O^2) and space Complexity O(n)</t>
+  </si>
+  <si>
+    <t>Longest Common Prefix</t>
+  </si>
+  <si>
+    <t>String Trie</t>
+  </si>
+  <si>
+    <t>2 - Intead of Shifitng the char from left to right each time it result In O(n^2). So we will concanate the string and form new_str  = s + s and just check whether the goal is in new_str. Time complexity : O(n) and space complexity : O(n)</t>
+  </si>
+  <si>
+    <t>1 - base word = strs[0].Use two loops. One loop through the base word len and other loop through the words in strs from 1 to last because strs[0] is base. Inside the sec loop check whether the char of base and words from str is same if not break else increase pref count += 1 atlast return base[:pref]</t>
+  </si>
+  <si>
+    <t>2 - Sort the strs array. Now the words is sorted in lexographical order. Now loop through till the min len of first or last word and check whether the first and last chars are similar if it’s not break and return upto match char.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,6 +283,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -291,9 +340,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -331,7 +380,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -437,7 +486,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -579,7 +628,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -589,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{499FDDBC-5FF9-4199-938E-A049D8EF6CDC}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -927,5 +976,148 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId17"/>
+  <headerFooter>
+    <oddFooter>&amp;R_x000D_&amp;1#&amp;"Calibri"&amp;8&amp;K000000 Cisco Confidential</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B72ADB7D-548C-45F2-A2DD-3042644DFBFE}">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="83" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.1796875" customWidth="1"/>
+    <col min="2" max="2" width="19.6328125" customWidth="1"/>
+    <col min="4" max="4" width="22.6328125" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" customWidth="1"/>
+    <col min="6" max="6" width="16.08984375" customWidth="1"/>
+    <col min="7" max="7" width="40.6328125" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1903</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="G3" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="G4" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="G5" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>796</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="G8" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+      <c r="G9" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="G12" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="G13" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://leetcode.com/problems/largest-odd-number-in-string/" xr:uid="{3094E020-7713-4963-9CBA-04E0A33F5E0F}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{8EC1C25F-BB16-46A0-9AD5-BA748316B423}"/>
+    <hyperlink ref="B7" r:id="rId3" display="https://leetcode.com/problems/rotate-string/" xr:uid="{FB64FAB3-D49C-4082-AA0A-E6384A4C5DA4}"/>
+    <hyperlink ref="B11" r:id="rId4" display="https://leetcode.com/problems/longest-common-prefix/" xr:uid="{D247CC36-1F54-44EF-A1AA-B7660928049B}"/>
+    <hyperlink ref="D7" r:id="rId5" xr:uid="{CF947C3F-5301-4E6C-8517-D6684B353733}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;R_x000D_&amp;1#&amp;"Calibri"&amp;8&amp;K000000 Cisco Confidential</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/Question_Rev.xlsx
+++ b/Question_Rev.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61EE1366-595E-4360-9907-120FA999F8E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCE97C31-26B1-4960-82A8-C12CF772CF4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{16EC8DE0-6C0A-4134-9B21-3B768554F89B}"/>
+    <workbookView xWindow="340" yWindow="340" windowWidth="2370" windowHeight="560" activeTab="2" xr2:uid="{16EC8DE0-6C0A-4134-9B21-3B768554F89B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Strivers Strings" sheetId="2" r:id="rId2"/>
+    <sheet name="Machine learning links" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="78">
   <si>
     <t>Problem Statement</t>
   </si>
@@ -265,6 +267,12 @@
   </si>
   <si>
     <t>2 - Sort the strs array. Now the words is sorted in lexographical order. Now loop through till the min len of first or last word and check whether the first and last chars are similar if it’s not break and return upto match char.</t>
+  </si>
+  <si>
+    <t>https://github.com/afshinea/stanford-cs-229-machine-learning/blob/master/en/cheatsheet-supervised-learning.pdf</t>
+  </si>
+  <si>
+    <t>Stanford cheat sheet</t>
   </si>
 </sst>
 </file>
@@ -986,7 +994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B72ADB7D-548C-45F2-A2DD-3042644DFBFE}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="83" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="83" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -1120,4 +1128,30 @@
     <oddFooter>&amp;R_x000D_&amp;1#&amp;"Calibri"&amp;8&amp;K000000 Cisco Confidential</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B94FE9C9-55C8-4295-B07A-9DCEAE299217}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>